--- a/excel files/design_excel_sheets.xlsx
+++ b/excel files/design_excel_sheets.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5ECC27-28FB-4617-9579-4B0B53B0013D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20311ECB-5301-49BA-878A-1D08D7BDCF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="710" windowWidth="19200" windowHeight="8710" tabRatio="683" activeTab="5" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="24432" yWindow="1032" windowWidth="20076" windowHeight="10212" tabRatio="683" activeTab="3" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="13" r:id="rId1"/>
     <sheet name="reactor_interval" sheetId="16" r:id="rId2"/>
-    <sheet name="sbml_models" sheetId="12" r:id="rId3"/>
-    <sheet name="jason_models" sheetId="18" r:id="rId4"/>
-    <sheet name="connection_matrix" sheetId="17" r:id="rId5"/>
-    <sheet name="abbreviations" sheetId="14" r:id="rId6"/>
+    <sheet name="models" sheetId="12" r:id="rId3"/>
+    <sheet name="connection_matrix" sheetId="17" r:id="rId4"/>
+    <sheet name="abbreviations" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>components</t>
   </si>
@@ -77,9 +76,6 @@
     <t xml:space="preserve">propionate </t>
   </si>
   <si>
-    <t xml:space="preserve">acetate </t>
-  </si>
-  <si>
     <t>composition</t>
   </si>
   <si>
@@ -161,9 +157,6 @@
     <t>extra_Lac</t>
   </si>
   <si>
-    <t>ace</t>
-  </si>
-  <si>
     <t>lac,ace, pH</t>
   </si>
   <si>
@@ -248,35 +241,26 @@
     <t>is_SBML</t>
   </si>
   <si>
-    <t xml:space="preserve">open_fermentation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inputs </t>
-  </si>
-  <si>
-    <t>input_abbr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outputs </t>
-  </si>
-  <si>
-    <t>output_abbr</t>
-  </si>
-  <si>
-    <t>FIGURE OUT HOW WE?RE GONA DO DIIIISSS</t>
-  </si>
-  <si>
     <t>utility_price</t>
   </si>
   <si>
     <t>energy</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Glucose, pH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +272,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -857,6 +847,170 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EE28C7-B262-4CC0-8359-3F7D50CCB55F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="1098550"/>
+          <a:ext cx="4445000" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>HOW MODELS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> WORKS </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>based</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> on how the models are named (.xml or .json) the equations are made</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>for sbml the exchqnge reations of a component are needed to run the FBA </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>for other models a json object can be made saved and read in to make a equation </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>to get the right names in the equations the original names (input/output_name) used in the models and their abbreviation </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(input/output_abbr).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> that are used iin the new equations needs to be given </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>eg for the json model the following dictionary is made to be able top replace the original variable with the new abbreviation:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>abbrDict = { glucose: glu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>                      Propionate:prop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>	pH : pH}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1005,8 +1159,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>146085</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1034,8 +1188,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000">
-          <a:off x="3394057" y="400703"/>
-          <a:ext cx="2020605" cy="5151120"/>
+          <a:off x="3203518" y="548755"/>
+          <a:ext cx="2096884" cy="4968240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,21 +1524,21 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1407,15 +1561,15 @@
         <v>0</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="10">
         <v>20</v>
@@ -1430,18 +1584,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="13">
         <v>20</v>
@@ -1456,24 +1610,24 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="10">
         <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="10">
         <v>0</v>
@@ -1482,24 +1636,24 @@
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="10">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -1508,24 +1662,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="10">
         <v>0</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="10">
         <v>0</v>
@@ -1534,13 +1688,13 @@
         <v>3</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1565,49 +1719,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7655ADEF-F1BF-4EAD-88C1-34CB901BBCF1}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -1619,36 +1773,36 @@
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -1657,36 +1811,36 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1698,36 +1852,36 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1739,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M4" s="3">
         <v>1</v>
@@ -1756,248 +1910,203 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BC9CAC-04EF-43A5-83DD-6F3569038763}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G4" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091262BA-EB44-4686-B1C8-3E2B5B645AD9}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H34" sqref="H34:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2024,9 +2133,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -2053,38 +2162,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -2111,9 +2220,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2140,67 +2249,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -2263,57 +2372,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EEE904-631F-4908-B001-5E65F9088BC1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
